--- a/Rayos X/rayos_x_dos_actividades.xlsx
+++ b/Rayos X/rayos_x_dos_actividades.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\OneDrive\Documentos\Séptimo Semestre\Lab Intermedio\Códigos Bitácoras\Laboratorio-Intermedio\Rayos X\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20B91E2-6B3E-4401-B9B6-DD7F4D90190D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7176DCC-7272-41FB-801C-85251B38EF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="29">
   <si>
     <t>Ángulo del crista</t>
   </si>
@@ -4978,8 +4979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{415F6C9C-6EA9-4182-8776-8B4864A5CBEF}">
   <dimension ref="A1:V82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2:V42"/>
+    <sheetView topLeftCell="N32" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:V42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8997,4 +8998,1489 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F893B53-7DA5-4E82-923D-8D8CED1D9D30}">
+  <dimension ref="A1:K42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>17.5</v>
+      </c>
+      <c r="B2">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>45</v>
+      </c>
+      <c r="D2">
+        <v>83</v>
+      </c>
+      <c r="E2">
+        <v>103</v>
+      </c>
+      <c r="F2">
+        <v>129</v>
+      </c>
+      <c r="G2">
+        <v>130</v>
+      </c>
+      <c r="H2">
+        <v>180</v>
+      </c>
+      <c r="I2">
+        <v>192</v>
+      </c>
+      <c r="J2">
+        <v>240</v>
+      </c>
+      <c r="K2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="B3">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>53</v>
+      </c>
+      <c r="D3">
+        <v>84</v>
+      </c>
+      <c r="E3">
+        <v>95</v>
+      </c>
+      <c r="F3">
+        <v>133</v>
+      </c>
+      <c r="G3">
+        <v>153</v>
+      </c>
+      <c r="H3">
+        <v>183</v>
+      </c>
+      <c r="I3">
+        <v>217</v>
+      </c>
+      <c r="J3">
+        <v>221</v>
+      </c>
+      <c r="K3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>17.7</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>78</v>
+      </c>
+      <c r="E4">
+        <v>106</v>
+      </c>
+      <c r="F4">
+        <v>139</v>
+      </c>
+      <c r="G4">
+        <v>159</v>
+      </c>
+      <c r="H4">
+        <v>187</v>
+      </c>
+      <c r="I4">
+        <v>225</v>
+      </c>
+      <c r="J4">
+        <v>240</v>
+      </c>
+      <c r="K4">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>17.8</v>
+      </c>
+      <c r="B5">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>59</v>
+      </c>
+      <c r="D5">
+        <v>82</v>
+      </c>
+      <c r="E5">
+        <v>99</v>
+      </c>
+      <c r="F5">
+        <v>137</v>
+      </c>
+      <c r="G5">
+        <v>141</v>
+      </c>
+      <c r="H5">
+        <v>183</v>
+      </c>
+      <c r="I5">
+        <v>219</v>
+      </c>
+      <c r="J5">
+        <v>237</v>
+      </c>
+      <c r="K5">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="B6">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>58</v>
+      </c>
+      <c r="D6">
+        <v>86</v>
+      </c>
+      <c r="E6">
+        <v>126</v>
+      </c>
+      <c r="F6">
+        <v>155</v>
+      </c>
+      <c r="G6">
+        <v>171</v>
+      </c>
+      <c r="H6">
+        <v>218</v>
+      </c>
+      <c r="I6">
+        <v>239</v>
+      </c>
+      <c r="J6">
+        <v>286</v>
+      </c>
+      <c r="K6">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>33</v>
+      </c>
+      <c r="C7">
+        <v>75</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>149</v>
+      </c>
+      <c r="F7">
+        <v>179</v>
+      </c>
+      <c r="G7">
+        <v>214</v>
+      </c>
+      <c r="H7">
+        <v>256</v>
+      </c>
+      <c r="I7">
+        <v>274</v>
+      </c>
+      <c r="J7">
+        <v>339</v>
+      </c>
+      <c r="K7">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="B8">
+        <v>69</v>
+      </c>
+      <c r="C8">
+        <v>132</v>
+      </c>
+      <c r="D8">
+        <v>239</v>
+      </c>
+      <c r="E8">
+        <v>299</v>
+      </c>
+      <c r="F8">
+        <v>390</v>
+      </c>
+      <c r="G8">
+        <v>440</v>
+      </c>
+      <c r="H8">
+        <v>515</v>
+      </c>
+      <c r="I8">
+        <v>562</v>
+      </c>
+      <c r="J8">
+        <v>642</v>
+      </c>
+      <c r="K8">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>18.2</v>
+      </c>
+      <c r="B9">
+        <v>177</v>
+      </c>
+      <c r="C9">
+        <v>384</v>
+      </c>
+      <c r="D9">
+        <v>578</v>
+      </c>
+      <c r="E9">
+        <v>731</v>
+      </c>
+      <c r="F9">
+        <v>859</v>
+      </c>
+      <c r="G9">
+        <v>1049</v>
+      </c>
+      <c r="H9">
+        <v>1222</v>
+      </c>
+      <c r="I9">
+        <v>1379</v>
+      </c>
+      <c r="J9">
+        <v>1492</v>
+      </c>
+      <c r="K9">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>18.3</v>
+      </c>
+      <c r="B10">
+        <v>74</v>
+      </c>
+      <c r="C10">
+        <v>140</v>
+      </c>
+      <c r="D10">
+        <v>195</v>
+      </c>
+      <c r="E10">
+        <v>256</v>
+      </c>
+      <c r="F10">
+        <v>347</v>
+      </c>
+      <c r="G10">
+        <v>428</v>
+      </c>
+      <c r="H10">
+        <v>476</v>
+      </c>
+      <c r="I10">
+        <v>564</v>
+      </c>
+      <c r="J10">
+        <v>618</v>
+      </c>
+      <c r="K10">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="B11">
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <v>55</v>
+      </c>
+      <c r="D11">
+        <v>96</v>
+      </c>
+      <c r="E11">
+        <v>104</v>
+      </c>
+      <c r="F11">
+        <v>159</v>
+      </c>
+      <c r="G11">
+        <v>173</v>
+      </c>
+      <c r="H11">
+        <v>196</v>
+      </c>
+      <c r="I11">
+        <v>226</v>
+      </c>
+      <c r="J11">
+        <v>278</v>
+      </c>
+      <c r="K11">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>18.5</v>
+      </c>
+      <c r="B12">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>55</v>
+      </c>
+      <c r="D12">
+        <v>81</v>
+      </c>
+      <c r="E12">
+        <v>115</v>
+      </c>
+      <c r="F12">
+        <v>119</v>
+      </c>
+      <c r="G12">
+        <v>181</v>
+      </c>
+      <c r="H12">
+        <v>195</v>
+      </c>
+      <c r="I12">
+        <v>224</v>
+      </c>
+      <c r="J12">
+        <v>241</v>
+      </c>
+      <c r="K12">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="B13">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>56</v>
+      </c>
+      <c r="D13">
+        <v>81</v>
+      </c>
+      <c r="E13">
+        <v>102</v>
+      </c>
+      <c r="F13">
+        <v>134</v>
+      </c>
+      <c r="G13">
+        <v>149</v>
+      </c>
+      <c r="H13">
+        <v>189</v>
+      </c>
+      <c r="I13">
+        <v>211</v>
+      </c>
+      <c r="J13">
+        <v>244</v>
+      </c>
+      <c r="K13">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>18.7</v>
+      </c>
+      <c r="B14">
+        <v>21</v>
+      </c>
+      <c r="C14">
+        <v>56</v>
+      </c>
+      <c r="D14">
+        <v>87</v>
+      </c>
+      <c r="E14">
+        <v>108</v>
+      </c>
+      <c r="F14">
+        <v>129</v>
+      </c>
+      <c r="G14">
+        <v>155</v>
+      </c>
+      <c r="H14">
+        <v>178</v>
+      </c>
+      <c r="I14">
+        <v>208</v>
+      </c>
+      <c r="J14">
+        <v>249</v>
+      </c>
+      <c r="K14">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>18.8</v>
+      </c>
+      <c r="B15">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>48</v>
+      </c>
+      <c r="D15">
+        <v>79</v>
+      </c>
+      <c r="E15">
+        <v>97</v>
+      </c>
+      <c r="F15">
+        <v>141</v>
+      </c>
+      <c r="G15">
+        <v>160</v>
+      </c>
+      <c r="H15">
+        <v>182</v>
+      </c>
+      <c r="I15">
+        <v>227</v>
+      </c>
+      <c r="J15">
+        <v>250</v>
+      </c>
+      <c r="K15">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="B16">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>46</v>
+      </c>
+      <c r="D16">
+        <v>76</v>
+      </c>
+      <c r="E16">
+        <v>106</v>
+      </c>
+      <c r="F16">
+        <v>134</v>
+      </c>
+      <c r="G16">
+        <v>168</v>
+      </c>
+      <c r="H16">
+        <v>185</v>
+      </c>
+      <c r="I16">
+        <v>216</v>
+      </c>
+      <c r="J16">
+        <v>238</v>
+      </c>
+      <c r="K16">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>48</v>
+      </c>
+      <c r="D17">
+        <v>77</v>
+      </c>
+      <c r="E17">
+        <v>106</v>
+      </c>
+      <c r="F17">
+        <v>135</v>
+      </c>
+      <c r="G17">
+        <v>145</v>
+      </c>
+      <c r="H17">
+        <v>193</v>
+      </c>
+      <c r="I17">
+        <v>211</v>
+      </c>
+      <c r="J17">
+        <v>222</v>
+      </c>
+      <c r="K17">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="B18">
+        <v>26</v>
+      </c>
+      <c r="C18">
+        <v>56</v>
+      </c>
+      <c r="D18">
+        <v>82</v>
+      </c>
+      <c r="E18">
+        <v>112</v>
+      </c>
+      <c r="F18">
+        <v>138</v>
+      </c>
+      <c r="G18">
+        <v>155</v>
+      </c>
+      <c r="H18">
+        <v>179</v>
+      </c>
+      <c r="I18">
+        <v>204</v>
+      </c>
+      <c r="J18">
+        <v>242</v>
+      </c>
+      <c r="K18">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19.2</v>
+      </c>
+      <c r="B19">
+        <v>27</v>
+      </c>
+      <c r="C19">
+        <v>50</v>
+      </c>
+      <c r="D19">
+        <v>70</v>
+      </c>
+      <c r="E19">
+        <v>106</v>
+      </c>
+      <c r="F19">
+        <v>121</v>
+      </c>
+      <c r="G19">
+        <v>145</v>
+      </c>
+      <c r="H19">
+        <v>186</v>
+      </c>
+      <c r="I19">
+        <v>224</v>
+      </c>
+      <c r="J19">
+        <v>246</v>
+      </c>
+      <c r="K19">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19.3</v>
+      </c>
+      <c r="B20">
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>52</v>
+      </c>
+      <c r="D20">
+        <v>86</v>
+      </c>
+      <c r="E20">
+        <v>113</v>
+      </c>
+      <c r="F20">
+        <v>140</v>
+      </c>
+      <c r="G20">
+        <v>153</v>
+      </c>
+      <c r="H20">
+        <v>189</v>
+      </c>
+      <c r="I20">
+        <v>213</v>
+      </c>
+      <c r="J20">
+        <v>219</v>
+      </c>
+      <c r="K20">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="B21">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <v>76</v>
+      </c>
+      <c r="E21">
+        <v>110</v>
+      </c>
+      <c r="F21">
+        <v>141</v>
+      </c>
+      <c r="G21">
+        <v>163</v>
+      </c>
+      <c r="H21">
+        <v>196</v>
+      </c>
+      <c r="I21">
+        <v>216</v>
+      </c>
+      <c r="J21">
+        <v>255</v>
+      </c>
+      <c r="K21">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19.5</v>
+      </c>
+      <c r="B22">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>56</v>
+      </c>
+      <c r="D22">
+        <v>77</v>
+      </c>
+      <c r="E22">
+        <v>96</v>
+      </c>
+      <c r="F22">
+        <v>147</v>
+      </c>
+      <c r="G22">
+        <v>169</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>218</v>
+      </c>
+      <c r="J22">
+        <v>253</v>
+      </c>
+      <c r="K22">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="B23">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <v>51</v>
+      </c>
+      <c r="D23">
+        <v>87</v>
+      </c>
+      <c r="E23">
+        <v>106</v>
+      </c>
+      <c r="F23">
+        <v>135</v>
+      </c>
+      <c r="G23">
+        <v>177</v>
+      </c>
+      <c r="H23">
+        <v>176</v>
+      </c>
+      <c r="I23">
+        <v>219</v>
+      </c>
+      <c r="J23">
+        <v>230</v>
+      </c>
+      <c r="K23">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>19.7</v>
+      </c>
+      <c r="B24">
+        <v>21</v>
+      </c>
+      <c r="C24">
+        <v>56</v>
+      </c>
+      <c r="D24">
+        <v>81</v>
+      </c>
+      <c r="E24">
+        <v>116</v>
+      </c>
+      <c r="F24">
+        <v>137</v>
+      </c>
+      <c r="G24">
+        <v>173</v>
+      </c>
+      <c r="H24">
+        <v>207</v>
+      </c>
+      <c r="I24">
+        <v>213</v>
+      </c>
+      <c r="J24">
+        <v>267</v>
+      </c>
+      <c r="K24">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>19.8</v>
+      </c>
+      <c r="B25">
+        <v>29</v>
+      </c>
+      <c r="C25">
+        <v>56</v>
+      </c>
+      <c r="D25">
+        <v>93</v>
+      </c>
+      <c r="E25">
+        <v>130</v>
+      </c>
+      <c r="F25">
+        <v>144</v>
+      </c>
+      <c r="G25">
+        <v>200</v>
+      </c>
+      <c r="H25">
+        <v>209</v>
+      </c>
+      <c r="I25">
+        <v>250</v>
+      </c>
+      <c r="J25">
+        <v>257</v>
+      </c>
+      <c r="K25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>69</v>
+      </c>
+      <c r="D26">
+        <v>97</v>
+      </c>
+      <c r="E26">
+        <v>137</v>
+      </c>
+      <c r="F26">
+        <v>160</v>
+      </c>
+      <c r="G26">
+        <v>196</v>
+      </c>
+      <c r="H26">
+        <v>232</v>
+      </c>
+      <c r="I26">
+        <v>264</v>
+      </c>
+      <c r="J26">
+        <v>315</v>
+      </c>
+      <c r="K26">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>20</v>
+      </c>
+      <c r="B27">
+        <v>33</v>
+      </c>
+      <c r="C27">
+        <v>62</v>
+      </c>
+      <c r="D27">
+        <v>110</v>
+      </c>
+      <c r="E27">
+        <v>155</v>
+      </c>
+      <c r="F27">
+        <v>164</v>
+      </c>
+      <c r="G27">
+        <v>221</v>
+      </c>
+      <c r="H27">
+        <v>247</v>
+      </c>
+      <c r="I27">
+        <v>290</v>
+      </c>
+      <c r="J27">
+        <v>339</v>
+      </c>
+      <c r="K27">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="B28">
+        <v>38</v>
+      </c>
+      <c r="C28">
+        <v>92</v>
+      </c>
+      <c r="D28">
+        <v>138</v>
+      </c>
+      <c r="E28">
+        <v>167</v>
+      </c>
+      <c r="F28">
+        <v>226</v>
+      </c>
+      <c r="G28">
+        <v>277</v>
+      </c>
+      <c r="H28">
+        <v>287</v>
+      </c>
+      <c r="I28">
+        <v>336</v>
+      </c>
+      <c r="J28">
+        <v>375</v>
+      </c>
+      <c r="K28">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>20.2</v>
+      </c>
+      <c r="B29">
+        <v>50</v>
+      </c>
+      <c r="C29">
+        <v>121</v>
+      </c>
+      <c r="D29">
+        <v>167</v>
+      </c>
+      <c r="E29">
+        <v>231</v>
+      </c>
+      <c r="F29">
+        <v>322</v>
+      </c>
+      <c r="G29">
+        <v>346</v>
+      </c>
+      <c r="H29">
+        <v>373</v>
+      </c>
+      <c r="I29">
+        <v>426</v>
+      </c>
+      <c r="J29">
+        <v>498</v>
+      </c>
+      <c r="K29">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>20.3</v>
+      </c>
+      <c r="B30">
+        <v>106</v>
+      </c>
+      <c r="C30">
+        <v>252</v>
+      </c>
+      <c r="D30">
+        <v>383</v>
+      </c>
+      <c r="E30">
+        <v>489</v>
+      </c>
+      <c r="F30">
+        <v>639</v>
+      </c>
+      <c r="G30">
+        <v>703</v>
+      </c>
+      <c r="H30">
+        <v>842</v>
+      </c>
+      <c r="I30">
+        <v>933</v>
+      </c>
+      <c r="J30">
+        <v>984</v>
+      </c>
+      <c r="K30">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="B31">
+        <v>734</v>
+      </c>
+      <c r="C31">
+        <v>1481</v>
+      </c>
+      <c r="D31">
+        <v>2208</v>
+      </c>
+      <c r="E31">
+        <v>2860</v>
+      </c>
+      <c r="F31">
+        <v>3382</v>
+      </c>
+      <c r="G31">
+        <v>3929</v>
+      </c>
+      <c r="H31">
+        <v>4422</v>
+      </c>
+      <c r="I31">
+        <v>4932</v>
+      </c>
+      <c r="J31">
+        <v>5647</v>
+      </c>
+      <c r="K31">
+        <v>6184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>20.5</v>
+      </c>
+      <c r="B32">
+        <v>732</v>
+      </c>
+      <c r="C32">
+        <v>1412</v>
+      </c>
+      <c r="D32">
+        <v>1919</v>
+      </c>
+      <c r="E32">
+        <v>2500</v>
+      </c>
+      <c r="F32">
+        <v>3057</v>
+      </c>
+      <c r="G32">
+        <v>3553</v>
+      </c>
+      <c r="H32">
+        <v>4168</v>
+      </c>
+      <c r="I32">
+        <v>4685</v>
+      </c>
+      <c r="J32">
+        <v>5209</v>
+      </c>
+      <c r="K32">
+        <v>5804</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>20.6</v>
+      </c>
+      <c r="B33">
+        <v>102</v>
+      </c>
+      <c r="C33">
+        <v>214</v>
+      </c>
+      <c r="D33">
+        <v>311</v>
+      </c>
+      <c r="E33">
+        <v>431</v>
+      </c>
+      <c r="F33">
+        <v>523</v>
+      </c>
+      <c r="G33">
+        <v>652</v>
+      </c>
+      <c r="H33">
+        <v>750</v>
+      </c>
+      <c r="I33">
+        <v>828</v>
+      </c>
+      <c r="J33">
+        <v>942</v>
+      </c>
+      <c r="K33">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>20.7</v>
+      </c>
+      <c r="B34">
+        <v>41</v>
+      </c>
+      <c r="C34">
+        <v>86</v>
+      </c>
+      <c r="D34">
+        <v>130</v>
+      </c>
+      <c r="E34">
+        <v>148</v>
+      </c>
+      <c r="F34">
+        <v>209</v>
+      </c>
+      <c r="G34">
+        <v>239</v>
+      </c>
+      <c r="H34">
+        <v>286</v>
+      </c>
+      <c r="I34">
+        <v>322</v>
+      </c>
+      <c r="J34">
+        <v>357</v>
+      </c>
+      <c r="K34">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>20.8</v>
+      </c>
+      <c r="B35">
+        <v>23</v>
+      </c>
+      <c r="C35">
+        <v>61</v>
+      </c>
+      <c r="D35">
+        <v>91</v>
+      </c>
+      <c r="E35">
+        <v>128</v>
+      </c>
+      <c r="F35">
+        <v>194</v>
+      </c>
+      <c r="G35">
+        <v>206</v>
+      </c>
+      <c r="H35">
+        <v>232</v>
+      </c>
+      <c r="I35">
+        <v>255</v>
+      </c>
+      <c r="J35">
+        <v>293</v>
+      </c>
+      <c r="K35">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>20.9</v>
+      </c>
+      <c r="B36">
+        <v>27</v>
+      </c>
+      <c r="C36">
+        <v>62</v>
+      </c>
+      <c r="D36">
+        <v>91</v>
+      </c>
+      <c r="E36">
+        <v>122</v>
+      </c>
+      <c r="F36">
+        <v>133</v>
+      </c>
+      <c r="G36">
+        <v>166</v>
+      </c>
+      <c r="H36">
+        <v>198</v>
+      </c>
+      <c r="I36">
+        <v>225</v>
+      </c>
+      <c r="J36">
+        <v>263</v>
+      </c>
+      <c r="K36">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>21</v>
+      </c>
+      <c r="B37">
+        <v>30</v>
+      </c>
+      <c r="C37">
+        <v>57</v>
+      </c>
+      <c r="D37">
+        <v>80</v>
+      </c>
+      <c r="E37">
+        <v>109</v>
+      </c>
+      <c r="F37">
+        <v>131</v>
+      </c>
+      <c r="G37">
+        <v>166</v>
+      </c>
+      <c r="H37">
+        <v>190</v>
+      </c>
+      <c r="I37">
+        <v>221</v>
+      </c>
+      <c r="J37">
+        <v>230</v>
+      </c>
+      <c r="K37">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>21.1</v>
+      </c>
+      <c r="B38">
+        <v>23</v>
+      </c>
+      <c r="C38">
+        <v>49</v>
+      </c>
+      <c r="D38">
+        <v>70</v>
+      </c>
+      <c r="E38">
+        <v>112</v>
+      </c>
+      <c r="F38">
+        <v>127</v>
+      </c>
+      <c r="G38">
+        <v>152</v>
+      </c>
+      <c r="H38">
+        <v>179</v>
+      </c>
+      <c r="I38">
+        <v>199</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>21.2</v>
+      </c>
+      <c r="B39">
+        <v>24</v>
+      </c>
+      <c r="C39">
+        <v>52</v>
+      </c>
+      <c r="D39">
+        <v>76</v>
+      </c>
+      <c r="E39">
+        <v>95</v>
+      </c>
+      <c r="F39">
+        <v>125</v>
+      </c>
+      <c r="G39">
+        <v>157</v>
+      </c>
+      <c r="H39">
+        <v>173</v>
+      </c>
+      <c r="I39">
+        <v>205</v>
+      </c>
+      <c r="J39">
+        <v>231</v>
+      </c>
+      <c r="K39">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>21.3</v>
+      </c>
+      <c r="B40">
+        <v>24</v>
+      </c>
+      <c r="C40">
+        <v>52</v>
+      </c>
+      <c r="D40">
+        <v>70</v>
+      </c>
+      <c r="E40">
+        <v>100</v>
+      </c>
+      <c r="F40">
+        <v>118</v>
+      </c>
+      <c r="G40">
+        <v>144</v>
+      </c>
+      <c r="H40">
+        <v>177</v>
+      </c>
+      <c r="I40">
+        <v>205</v>
+      </c>
+      <c r="J40">
+        <v>226</v>
+      </c>
+      <c r="K40">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>21.4</v>
+      </c>
+      <c r="B41">
+        <v>25</v>
+      </c>
+      <c r="C41">
+        <v>44</v>
+      </c>
+      <c r="D41">
+        <v>69</v>
+      </c>
+      <c r="E41">
+        <v>95</v>
+      </c>
+      <c r="F41">
+        <v>128</v>
+      </c>
+      <c r="G41">
+        <v>154</v>
+      </c>
+      <c r="H41">
+        <v>179</v>
+      </c>
+      <c r="I41">
+        <v>208</v>
+      </c>
+      <c r="J41">
+        <v>220</v>
+      </c>
+      <c r="K41">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>21.5</v>
+      </c>
+      <c r="B42">
+        <v>29</v>
+      </c>
+      <c r="C42">
+        <v>49</v>
+      </c>
+      <c r="D42">
+        <v>67</v>
+      </c>
+      <c r="E42">
+        <v>100</v>
+      </c>
+      <c r="F42">
+        <v>116</v>
+      </c>
+      <c r="G42">
+        <v>142</v>
+      </c>
+      <c r="H42">
+        <v>171</v>
+      </c>
+      <c r="I42">
+        <v>191</v>
+      </c>
+      <c r="J42">
+        <v>204</v>
+      </c>
+      <c r="K42">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>